--- a/Golucose_Level/glucose.xlsx
+++ b/Golucose_Level/glucose.xlsx
@@ -60,8 +60,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,8 +366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +459,7 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>67.124322370798694</v>
       </c>
     </row>
@@ -469,7 +470,7 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>67.475605348753106</v>
       </c>
     </row>
@@ -480,7 +481,7 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>67.826888326707603</v>
       </c>
     </row>
@@ -491,7 +492,7 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>68.178171304662001</v>
       </c>
     </row>
@@ -502,7 +503,7 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>68.529454282616499</v>
       </c>
     </row>
@@ -513,7 +514,7 @@
       <c r="B13">
         <v>6</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>68.880737260570996</v>
       </c>
     </row>
@@ -524,7 +525,7 @@
       <c r="B14">
         <v>7</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>69.232020238525394</v>
       </c>
     </row>
@@ -535,7 +536,7 @@
       <c r="B15">
         <v>8</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>69.583303216479905</v>
       </c>
     </row>
@@ -546,7 +547,7 @@
       <c r="B16">
         <v>9</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>69.934586194434402</v>
       </c>
     </row>
@@ -557,7 +558,7 @@
       <c r="B17">
         <v>10</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>70.2858691723888</v>
       </c>
     </row>
@@ -568,7 +569,7 @@
       <c r="B18">
         <v>11</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>70.637152150343297</v>
       </c>
     </row>
@@ -579,7 +580,7 @@
       <c r="B19">
         <v>12</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>70.988435128297795</v>
       </c>
     </row>
@@ -590,7 +591,7 @@
       <c r="B20">
         <v>13</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>71.339718106252207</v>
       </c>
     </row>
@@ -601,7 +602,7 @@
       <c r="B21">
         <v>14</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>71.691001084206704</v>
       </c>
     </row>
@@ -612,7 +613,7 @@
       <c r="B22">
         <v>15</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>72.042284062161102</v>
       </c>
     </row>
@@ -623,7 +624,7 @@
       <c r="B23">
         <v>16</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>72.393567040115599</v>
       </c>
     </row>
@@ -634,7 +635,7 @@
       <c r="B24">
         <v>17</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>72.744850018070096</v>
       </c>
     </row>
@@ -645,7 +646,7 @@
       <c r="B25">
         <v>18</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>73.096132996024494</v>
       </c>
     </row>
@@ -656,7 +657,7 @@
       <c r="B26">
         <v>19</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>73.447415973979005</v>
       </c>
     </row>
@@ -667,7 +668,7 @@
       <c r="B27">
         <v>20</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>73.798698951933503</v>
       </c>
     </row>
@@ -678,7 +679,7 @@
       <c r="B28">
         <v>21</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>74.1499819298879</v>
       </c>
     </row>
@@ -689,7 +690,7 @@
       <c r="B29">
         <v>22</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>74.501264907842398</v>
       </c>
     </row>
@@ -700,7 +701,7 @@
       <c r="B30">
         <v>23</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>74.852547885796895</v>
       </c>
     </row>
@@ -711,7 +712,7 @@
       <c r="B31">
         <v>24</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>75.203830863751307</v>
       </c>
     </row>
@@ -722,7 +723,7 @@
       <c r="B32">
         <v>25</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>75.555113841705804</v>
       </c>
     </row>
@@ -733,7 +734,7 @@
       <c r="B33">
         <v>26</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>75.906396819660202</v>
       </c>
     </row>
@@ -744,7 +745,7 @@
       <c r="B34">
         <v>27</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>76.257679797614699</v>
       </c>
     </row>
@@ -755,7 +756,7 @@
       <c r="B35">
         <v>28</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>76.608962775569196</v>
       </c>
     </row>
@@ -766,7 +767,7 @@
       <c r="B36">
         <v>29</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>76.960245753523594</v>
       </c>
     </row>
@@ -777,7 +778,7 @@
       <c r="B37">
         <v>30</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>77.311528731478106</v>
       </c>
     </row>
@@ -788,7 +789,7 @@
       <c r="B38">
         <v>31</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>77.662811709432603</v>
       </c>
     </row>
@@ -799,7 +800,7 @@
       <c r="B39">
         <v>32</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>78.014094687387001</v>
       </c>
     </row>
@@ -810,7 +811,7 @@
       <c r="B40">
         <v>33</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>78.365377665341498</v>
       </c>
     </row>
@@ -821,7 +822,7 @@
       <c r="B41">
         <v>34</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>78.716660643295995</v>
       </c>
     </row>
@@ -832,7 +833,7 @@
       <c r="B42">
         <v>35</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>79.067943621250393</v>
       </c>
     </row>
@@ -843,7 +844,7 @@
       <c r="B43">
         <v>36</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>79.419226599204904</v>
       </c>
     </row>
@@ -854,7 +855,7 @@
       <c r="B44">
         <v>37</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>79.770509577159302</v>
       </c>
     </row>
@@ -865,7 +866,7 @@
       <c r="B45">
         <v>38</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>80.121792555113799</v>
       </c>
     </row>
@@ -876,7 +877,7 @@
       <c r="B46">
         <v>39</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>80.473075533068297</v>
       </c>
     </row>
@@ -887,7 +888,7 @@
       <c r="B47">
         <v>40</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>80.824358511022695</v>
       </c>
     </row>
@@ -898,7 +899,7 @@
       <c r="B48">
         <v>41</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>81.175641488977206</v>
       </c>
     </row>
@@ -909,7 +910,7 @@
       <c r="B49">
         <v>42</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>81.526924466931703</v>
       </c>
     </row>
@@ -920,7 +921,7 @@
       <c r="B50">
         <v>43</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>81.878207444886101</v>
       </c>
     </row>
@@ -931,7 +932,7 @@
       <c r="B51">
         <v>44</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
         <v>82.229490422840598</v>
       </c>
     </row>
@@ -942,7 +943,7 @@
       <c r="B52">
         <v>45</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <v>82.580773400795096</v>
       </c>
     </row>
@@ -953,7 +954,7 @@
       <c r="B53">
         <v>46</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1">
         <v>82.932056378749493</v>
       </c>
     </row>
@@ -964,7 +965,7 @@
       <c r="B54">
         <v>47</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1">
         <v>83.283339356704005</v>
       </c>
     </row>
@@ -975,7 +976,7 @@
       <c r="B55">
         <v>48</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
         <v>83.634622334658403</v>
       </c>
     </row>
@@ -986,7 +987,7 @@
       <c r="B56">
         <v>49</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <v>83.9859053126129</v>
       </c>
     </row>
@@ -997,7 +998,7 @@
       <c r="B57">
         <v>50</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1">
         <v>84.337188290567397</v>
       </c>
     </row>
@@ -1008,7 +1009,7 @@
       <c r="B58">
         <v>51</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>84.688471268521795</v>
       </c>
     </row>
@@ -1019,7 +1020,7 @@
       <c r="B59">
         <v>52</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
         <v>85.039754246476306</v>
       </c>
     </row>
@@ -1030,7 +1031,7 @@
       <c r="B60">
         <v>53</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
         <v>85.391037224430704</v>
       </c>
     </row>
@@ -1041,7 +1042,7 @@
       <c r="B61">
         <v>54</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1">
         <v>85.742320202385201</v>
       </c>
     </row>
@@ -1052,7 +1053,7 @@
       <c r="B62">
         <v>55</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1">
         <v>86.093603180339699</v>
       </c>
     </row>
@@ -1063,7 +1064,7 @@
       <c r="B63">
         <v>56</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="1">
         <v>86.444886158294096</v>
       </c>
     </row>
@@ -1074,7 +1075,7 @@
       <c r="B64">
         <v>57</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="1">
         <v>86.796169136248594</v>
       </c>
     </row>
@@ -1085,7 +1086,7 @@
       <c r="B65">
         <v>58</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1">
         <v>87.147452114203105</v>
       </c>
     </row>
@@ -1096,7 +1097,7 @@
       <c r="B66">
         <v>59</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="1">
         <v>87.498735092157503</v>
       </c>
     </row>
@@ -1107,7 +1108,7 @@
       <c r="B67">
         <v>60</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="1">
         <v>87.850018070112</v>
       </c>
     </row>
@@ -1118,7 +1119,7 @@
       <c r="B68">
         <v>61</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="1">
         <v>88.201301048066497</v>
       </c>
     </row>
@@ -1129,7 +1130,7 @@
       <c r="B69">
         <v>62</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="1">
         <v>88.552584026020895</v>
       </c>
     </row>
@@ -1140,7 +1141,7 @@
       <c r="B70">
         <v>63</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="1">
         <v>88.903867003975407</v>
       </c>
     </row>
@@ -1151,7 +1152,7 @@
       <c r="B71">
         <v>64</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="1">
         <v>89.255149981929804</v>
       </c>
     </row>
@@ -1162,7 +1163,7 @@
       <c r="B72">
         <v>65</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="1">
         <v>89.606432959884302</v>
       </c>
     </row>
@@ -1173,7 +1174,7 @@
       <c r="B73">
         <v>66</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="1">
         <v>89.957715937838799</v>
       </c>
     </row>
@@ -1184,7 +1185,7 @@
       <c r="B74">
         <v>67</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="1">
         <v>90.308998915793197</v>
       </c>
     </row>
@@ -1195,7 +1196,7 @@
       <c r="B75">
         <v>68</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="1">
         <v>90.660281893747694</v>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       <c r="B76">
         <v>69</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="1">
         <v>91.011564871702205</v>
       </c>
     </row>
@@ -1217,7 +1218,7 @@
       <c r="B77">
         <v>70</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="1">
         <v>91.362847849656603</v>
       </c>
     </row>
@@ -1228,7 +1229,7 @@
       <c r="B78">
         <v>71</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="1">
         <v>91.7141308276111</v>
       </c>
     </row>
@@ -1239,7 +1240,7 @@
       <c r="B79">
         <v>72</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="1">
         <v>92.065413805565598</v>
       </c>
     </row>
@@ -1250,7 +1251,7 @@
       <c r="B80">
         <v>73</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="1">
         <v>92.416696783519996</v>
       </c>
     </row>
@@ -1261,7 +1262,7 @@
       <c r="B81">
         <v>74</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="1">
         <v>92.767979761474507</v>
       </c>
     </row>
@@ -1272,7 +1273,7 @@
       <c r="B82">
         <v>75</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="1">
         <v>93.119262739428905</v>
       </c>
     </row>
@@ -1283,7 +1284,7 @@
       <c r="B83">
         <v>76</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="1">
         <v>93.470545717383402</v>
       </c>
     </row>
@@ -1294,7 +1295,7 @@
       <c r="B84">
         <v>77</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="1">
         <v>93.821828695337899</v>
       </c>
     </row>
@@ -1305,7 +1306,7 @@
       <c r="B85">
         <v>78</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="1">
         <v>94.173111673292297</v>
       </c>
     </row>
@@ -1316,7 +1317,7 @@
       <c r="B86">
         <v>79</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="1">
         <v>94.524394651246794</v>
       </c>
     </row>
@@ -1327,7 +1328,7 @@
       <c r="B87">
         <v>80</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="1">
         <v>94.875677629201306</v>
       </c>
     </row>
@@ -1338,7 +1339,7 @@
       <c r="B88">
         <v>81</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="1">
         <v>95.226960607155704</v>
       </c>
     </row>
@@ -1349,7 +1350,7 @@
       <c r="B89">
         <v>82</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="1">
         <v>95.578243585110201</v>
       </c>
     </row>
@@ -1360,7 +1361,7 @@
       <c r="B90">
         <v>83</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="1">
         <v>95.929526563064698</v>
       </c>
     </row>
@@ -1371,7 +1372,7 @@
       <c r="B91">
         <v>84</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="1">
         <v>96.280809541019096</v>
       </c>
     </row>
@@ -1382,7 +1383,7 @@
       <c r="B92">
         <v>85</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="1">
         <v>96.632092518973593</v>
       </c>
     </row>
@@ -1393,7 +1394,7 @@
       <c r="B93">
         <v>86</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="1">
         <v>96.983375496928005</v>
       </c>
     </row>
@@ -1404,7 +1405,7 @@
       <c r="B94">
         <v>87</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="1">
         <v>97.334658474882502</v>
       </c>
     </row>
@@ -1415,7 +1416,7 @@
       <c r="B95">
         <v>88</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="1">
         <v>97.685941452837</v>
       </c>
     </row>
@@ -1426,7 +1427,7 @@
       <c r="B96">
         <v>89</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="1">
         <v>98.037224430791397</v>
       </c>
     </row>
@@ -1437,7 +1438,7 @@
       <c r="B97">
         <v>90</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="1">
         <v>98.388507408745895</v>
       </c>
     </row>
@@ -1448,7 +1449,7 @@
       <c r="B98">
         <v>91</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="1">
         <v>98.739790386700406</v>
       </c>
     </row>
@@ -1459,7 +1460,7 @@
       <c r="B99">
         <v>92</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="1">
         <v>99.091073364654804</v>
       </c>
     </row>
@@ -1470,7 +1471,7 @@
       <c r="B100">
         <v>93</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="1">
         <v>99.442356342609301</v>
       </c>
     </row>
@@ -1481,7 +1482,7 @@
       <c r="B101">
         <v>94</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="1">
         <v>99.793639320563699</v>
       </c>
     </row>
@@ -1492,7 +1493,7 @@
       <c r="B102">
         <v>95</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="1">
         <v>100.144922298518</v>
       </c>
     </row>
@@ -1503,7 +1504,7 @@
       <c r="B103">
         <v>96</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="1">
         <v>100.496205276472</v>
       </c>
     </row>
@@ -1514,7 +1515,7 @@
       <c r="B104">
         <v>97</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="1">
         <v>100.84748825442701</v>
       </c>
     </row>
@@ -1525,7 +1526,7 @@
       <c r="B105">
         <v>98</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="1">
         <v>101.19877123238101</v>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       <c r="B106">
         <v>99</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="1">
         <v>101.550054210336</v>
       </c>
     </row>
@@ -1547,12 +1548,13 @@
       <c r="B107">
         <v>100</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="1">
         <v>101.90133718829</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
